--- a/config_1.26/game_activity_config.xlsx
+++ b/config_1.26/game_activity_config.xlsx
@@ -283,14 +283,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"act_039_ty_by_hhl","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_039_ty_sjb","panel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_041_yybjsj","panel_act"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -304,6 +296,14 @@
   </si>
   <si>
     <t>|活动模板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_sjb","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_by_hhl","panel"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -778,10 +778,10 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1274,7 +1274,7 @@
         <v>58</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -1317,13 +1317,13 @@
         <v>59</v>
       </c>
       <c r="M12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1360,13 +1360,13 @@
         <v>59</v>
       </c>
       <c r="M13" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1436,6 +1436,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1443,31 +1468,6 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
@@ -1475,13 +1475,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1493,13 +1493,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
